--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/66.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/66.xlsx
@@ -479,13 +479,13 @@
         <v>-1.497729830551515</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.647743679158836</v>
+        <v>-8.815141863293146</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.067188869781625</v>
+        <v>-3.015618288888066</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.44604720382041</v>
+        <v>-5.458576537639941</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-1.397896346762995</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.893237449744042</v>
+        <v>-9.075469212998026</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.162304449926765</v>
+        <v>-3.095612259251012</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.375309491566564</v>
+        <v>-5.396047699267858</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-1.444113589393409</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.711768223408756</v>
+        <v>-9.889168926914143</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.045167616401842</v>
+        <v>-2.976838887870874</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.248864030721173</v>
+        <v>-5.261511195266281</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-1.630202451860523</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.47939612362484</v>
+        <v>-10.65348447451127</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.949868744016918</v>
+        <v>-2.886488905960122</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.456259200036956</v>
+        <v>-5.480571606414042</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-1.921738387256472</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.25913440396952</v>
+        <v>-11.43082686343591</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.798691923103507</v>
+        <v>-2.738585160757142</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.00937962714032</v>
+        <v>-5.033757495031614</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.277522811303335</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.920269512871</v>
+        <v>-12.09268204899369</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.766367027387285</v>
+        <v>-2.711837586051496</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.149009036947329</v>
+        <v>-5.160058940545746</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.658583590197011</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.41785557467364</v>
+        <v>-12.59638221622342</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.646991410076427</v>
+        <v>-2.587342878329523</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.708112646449361</v>
+        <v>-4.718246088848858</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.026035971270482</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.39520907411134</v>
+        <v>-13.56179553546946</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.391822427691186</v>
+        <v>-2.338405832096943</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.624308815959473</v>
+        <v>-4.625068169524293</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.341641235561625</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.14110375161015</v>
+        <v>-14.30373633751007</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.368033713427769</v>
+        <v>-2.319094685405398</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.255564106422258</v>
+        <v>-4.230021023578051</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.581178777835732</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.83930316985656</v>
+        <v>-14.99837464938353</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.191654209544036</v>
+        <v>-2.144286257862671</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.041190739691836</v>
+        <v>-4.021539193126405</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.727151411137403</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.50182606285927</v>
+        <v>-15.65452159090232</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.176872999635727</v>
+        <v>-2.139926521016376</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.5227093625538</v>
+        <v>-3.506265430184592</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.772375235773263</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.47301308765851</v>
+        <v>-16.62216060163145</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.012420583640806</v>
+        <v>-1.967867477070412</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.883490768609366</v>
+        <v>-2.869023773969259</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.725235355015696</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.11430026545193</v>
+        <v>-17.25102318402808</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.730307642007293</v>
+        <v>-1.699017038215567</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.519996072511684</v>
+        <v>-2.489045868593843</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.599515580146101</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.02061492967042</v>
+        <v>-18.14903732824491</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.563433149986652</v>
+        <v>-1.534643176037697</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.924571231572824</v>
+        <v>-1.902471424375991</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.41579601746656</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.93712849780261</v>
+        <v>-19.05675286886746</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.396951427051264</v>
+        <v>-1.378622203072847</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.571157608663271</v>
+        <v>-1.517099490229784</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.200182423384961</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.72773338950593</v>
+        <v>-19.83926671741459</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.152295563847928</v>
+        <v>-1.144034320754799</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.041835804772286</v>
+        <v>-0.9868874097455613</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.974083796017894</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.71321720900833</v>
+        <v>-20.81880663142685</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.055425615121997</v>
+        <v>-1.048722356067034</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6825306455839555</v>
+        <v>-0.6245579286007924</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.757581371064929</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.5545154973148</v>
+        <v>-21.65711987468541</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9047070248080469</v>
+        <v>-0.9006222263214283</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3122410443114171</v>
+        <v>-0.2467009762857364</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.566530934095451</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.20412937971557</v>
+        <v>-22.30898563317495</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6486084889210433</v>
+        <v>-0.6564115014147119</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06206789393353121</v>
+        <v>0.1153404741965146</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.405403324406354</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.83363348495144</v>
+        <v>-22.93140680257345</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3472498621101926</v>
+        <v>-0.3601065035007676</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3792812994857121</v>
+        <v>0.4423992914856735</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.278395150219912</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.46398858987203</v>
+        <v>-23.56112038465479</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.07739131593653487</v>
+        <v>-0.1040472445222891</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3439713587215769</v>
+        <v>0.4158611936254947</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.183904745484792</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.97314824738675</v>
+        <v>-24.06461107503905</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03592256515860425</v>
+        <v>0.009397559601267237</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6043641699406667</v>
+        <v>0.6931954447217781</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.112788977484523</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.35960684266882</v>
+        <v>-24.44148610464098</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01837887935069132</v>
+        <v>-0.01199526324211316</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5353284570562451</v>
+        <v>0.6169851498800906</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.060983657245057</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.63055204997834</v>
+        <v>-24.7100485128333</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3068808647709669</v>
+        <v>0.2755640763735582</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5253259376851664</v>
+        <v>0.6046783852088681</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.020270675258779</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.64579149048611</v>
+        <v>-24.71635900280302</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3200517214297434</v>
+        <v>0.2916937934745647</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3659664274956767</v>
+        <v>0.4536717642323996</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.980288625080441</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.62270976057615</v>
+        <v>-24.67473857206917</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1381996349581683</v>
+        <v>0.1093572917978458</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3412612520333396</v>
+        <v>0.4284952658677604</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.936828693373995</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.73586653403719</v>
+        <v>-24.77781427234208</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2544592841926958</v>
+        <v>0.2318750617907183</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0537280970233517</v>
+        <v>0.1392208345798229</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.880965682408597</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.78127064029229</v>
+        <v>-24.8154415507092</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2017365806490649</v>
+        <v>0.1972590130771946</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.04145294463599681</v>
+        <v>0.03295061241353243</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.804202578848789</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.55434175513666</v>
+        <v>-24.58757001974896</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07713713450435791</v>
+        <v>0.05722374188209257</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2355725188702692</v>
+        <v>-0.1677936670586534</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.701059377609228</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.08346399113114</v>
+        <v>-24.12278017656484</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07586718112871049</v>
+        <v>0.06236901689889091</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6968798094984873</v>
+        <v>-0.635856585953202</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.565006257393869</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.16734637543808</v>
+        <v>-24.19643747235239</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1393779422139236</v>
+        <v>0.1262725470693558</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7529148656610748</v>
+        <v>-0.7133630187762203</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.39298095171932</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.74607534689986</v>
+        <v>-23.7759912588932</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05501114270184086</v>
+        <v>0.04671062270018653</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.215845601841667</v>
+        <v>-1.180876060951417</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.184842470929778</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.18288375555733</v>
+        <v>-23.21185702174607</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1004599535436562</v>
+        <v>-0.1008003534175411</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.28845551340188</v>
+        <v>-1.263999091693535</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.9435068858825997</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.84071642078882</v>
+        <v>-22.86095712098212</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2924716670204107</v>
+        <v>-0.2959542195763099</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.310345843753246</v>
+        <v>-1.292789065642491</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.6760845520067451</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.11491842815205</v>
+        <v>-22.13496274380273</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4235518030717721</v>
+        <v>-0.4173591438276357</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.513328907011367</v>
+        <v>-1.505303325369389</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.3923975510681569</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.30391572862133</v>
+        <v>-21.33795571600981</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3591507653933216</v>
+        <v>-0.3514917682309118</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.640284967667584</v>
+        <v>-1.613799239018773</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.1034738204250316</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.92749892961886</v>
+        <v>-20.96151273240167</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4143479141740387</v>
+        <v>-0.4178173744270961</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.889902813647933</v>
+        <v>-1.861872193263798</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.1799071741493583</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.27353840267464</v>
+        <v>-20.3041482067186</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2668500303591528</v>
+        <v>-0.263302016289045</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.041564049766488</v>
+        <v>-2.021113872727712</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4486866145208113</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.96808188507433</v>
+        <v>-19.98337369479347</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5480334184909036</v>
+        <v>-0.544236650666803</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.26685639706691</v>
+        <v>-2.239349468796444</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6966474526405534</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.43298637563015</v>
+        <v>-19.46380565651957</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2709086442400879</v>
+        <v>-0.2680021530092247</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.108766840253068</v>
+        <v>-2.096198229525011</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9193978958621813</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.87721811999887</v>
+        <v>-18.90153052637596</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.01187743251653762</v>
+        <v>-0.02070164463186099</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.081364650405336</v>
+        <v>-2.087190725169904</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.115046855015636</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.97429436221639</v>
+        <v>-18.01025891812262</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.02151336740804801</v>
+        <v>-0.02764056513797581</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.972606890699117</v>
+        <v>-1.984743455433397</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.282980191956612</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.6405715627808</v>
+        <v>-17.67148248979011</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0261557072386766</v>
+        <v>0.02385146193853282</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.174673492758317</v>
+        <v>-2.19099959440195</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.423909344037266</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.12982773662222</v>
+        <v>-17.15707281883585</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.004310081474019956</v>
+        <v>-0.009101864314091697</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.215717862167129</v>
+        <v>-2.235762177817811</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.539289454843857</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.75275632247767</v>
+        <v>-16.7775531440599</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01417625013849725</v>
+        <v>0.01158397417583549</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.154419700262167</v>
+        <v>-2.189899840963244</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.631699627015431</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.08159250959942</v>
+        <v>-16.11948163402338</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02132464749007969</v>
+        <v>0.02847304484166212</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.446757730415068</v>
+        <v>-2.48833888424039</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.704381522195099</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.43059084309744</v>
+        <v>-15.45873929420715</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.008656726017473011</v>
+        <v>0.003610761745224315</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.381217662389388</v>
+        <v>-2.426569399433127</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.758527104644952</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.8939111650094</v>
+        <v>-14.93060888987476</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1431485254323407</v>
+        <v>0.1439733405113695</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.562546056747294</v>
+        <v>-2.628727647612219</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>1.796735604156211</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.19361697830831</v>
+        <v>-14.23699177762295</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2874518873538455</v>
+        <v>0.2903845631903921</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.475010919947513</v>
+        <v>-2.569759915613085</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>1.821024000835985</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.42665678553716</v>
+        <v>-13.4571356665527</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2848203344826585</v>
+        <v>0.2859986417384139</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.54234463346251</v>
+        <v>-2.650434685723801</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>1.831005179995699</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.83915278781754</v>
+        <v>-12.86227379463603</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3685063342469715</v>
+        <v>0.3661104428269357</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.553957506083121</v>
+        <v>-2.663330604022901</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>1.829518523079165</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.18775835223031</v>
+        <v>-12.20801214472646</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4190819001245594</v>
+        <v>0.4174322699665019</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.573242468168984</v>
+        <v>-2.689331917466569</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>1.818304456812397</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.81020252288061</v>
+        <v>-11.84052429626205</v>
       </c>
       <c r="F54" t="n">
-        <v>0.308360294992082</v>
+        <v>0.3051003115844922</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.679499598032433</v>
+        <v>-2.800655768529765</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>1.797706866198772</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.35583415275851</v>
+        <v>-11.37788159074397</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05969818711917879</v>
+        <v>0.05841514144068963</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.145585579197881</v>
+        <v>-3.2783153454073</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.77310815520304</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.90852253386809</v>
+        <v>-10.94535118176187</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1512526608913692</v>
+        <v>0.1427033871357221</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.216179276120468</v>
+        <v>-3.350467026368052</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.747875934045711</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.1521540140959</v>
+        <v>-10.18593215542755</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08693017702996901</v>
+        <v>0.0827537324234584</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.582436448117754</v>
+        <v>-3.708109463095483</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.725598549893226</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.851594017758391</v>
+        <v>-9.879454438205583</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.08886017322588691</v>
+        <v>-0.0877996966957071</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.615154112919228</v>
+        <v>-3.745684372251237</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.714150576284802</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.305906835315248</v>
+        <v>-9.334775363081254</v>
       </c>
       <c r="F59" t="n">
-        <v>0.001633824016123679</v>
+        <v>-0.005200358067257329</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.900474668748964</v>
+        <v>-4.023424484735614</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>1.716561602786075</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.939859140163428</v>
+        <v>-8.974501373482635</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1345915870520361</v>
+        <v>-0.1416876151922516</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.811918332327529</v>
+        <v>-3.937682993425149</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>1.736482693679527</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.410681351603703</v>
+        <v>-8.434954481072262</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1593753163314235</v>
+        <v>-0.1601870391076105</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.214375721682188</v>
+        <v>-4.339433398426356</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>1.778934216217141</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.900356479136062</v>
+        <v>-7.936334127345125</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1026594604210662</v>
+        <v>-0.1081844122202746</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.169796430506111</v>
+        <v>-4.3033641040974</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>1.842632975564315</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.418965595948636</v>
+        <v>-7.45805921223403</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1591658394859559</v>
+        <v>-0.1557487484442654</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.172833844765392</v>
+        <v>-4.304516226747472</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>1.931062726371052</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.063417927675881</v>
+        <v>-7.096384346231348</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3173994116310572</v>
+        <v>-0.3129873055733955</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.420396199199589</v>
+        <v>-4.548137798026311</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>2.047054018724314</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.691766726907804</v>
+        <v>-6.728438267167478</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2622677243645487</v>
+        <v>-0.2620582475190811</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.705284709035549</v>
+        <v>-4.829059340101227</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>2.185972591332215</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.441821573356411</v>
+        <v>-6.48011655916846</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3796009424320977</v>
+        <v>-0.3755685131568461</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.699720480327815</v>
+        <v>-4.815744468111192</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>2.349681662134249</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.277447711178541</v>
+        <v>-6.316397312132676</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4361073214969874</v>
+        <v>-0.4310275079943977</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.816071775682235</v>
+        <v>-4.9221456133059</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>2.535308884911402</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.001029921281178</v>
+        <v>-6.036654077313514</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4033111028784636</v>
+        <v>-0.3948011060313417</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.812445207795077</v>
+        <v>-4.918296476270432</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>2.73487431694273</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.866650524913702</v>
+        <v>-5.898556466938988</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6614127611002513</v>
+        <v>-0.6479669660817986</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.913452324218993</v>
+        <v>-5.011225641841004</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>2.947409673710322</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.629522735844359</v>
+        <v>-5.673120104307307</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6054955356632393</v>
+        <v>-0.600062229983923</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.780617819586841</v>
+        <v>-4.87011680181288</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>3.166130529722665</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.507567934873681</v>
+        <v>-5.546674643461916</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7046173604779473</v>
+        <v>-0.690294381169099</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.757221874408676</v>
+        <v>-4.84076385884173</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>3.382903350090731</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.484551666477926</v>
+        <v>-5.534119125036701</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7981487719792384</v>
+        <v>-0.7827522238373685</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.657235957606415</v>
+        <v>-4.732267945192346</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>3.595509978384132</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.519652130396594</v>
+        <v>-5.575634817347814</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8564487965334445</v>
+        <v>-0.8356844042264671</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.470631365203293</v>
+        <v>-4.540806108434944</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>3.795507063722854</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.75574562754144</v>
+        <v>-5.813116098593883</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7487907902659311</v>
+        <v>-0.7302389971392053</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.356859253508693</v>
+        <v>-4.434719178508438</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>3.977189636956737</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.956476814710784</v>
+        <v>-6.009775579579451</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.079070314054155</v>
+        <v>-1.052924985279228</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.192851975810391</v>
+        <v>-4.269193193680495</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>4.138980100014491</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.484698865163064</v>
+        <v>-6.534384154447414</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9912733311975396</v>
+        <v>-0.9681523243790514</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.023987453757808</v>
+        <v>-4.10789602267043</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>4.273070633936992</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.950968138568296</v>
+        <v>-6.99878122854628</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.050345801619408</v>
+        <v>-1.023310196251243</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.947109451471192</v>
+        <v>-4.028779236597879</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>4.37825381590489</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.528037570923056</v>
+        <v>-7.57820727541255</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.141756260060339</v>
+        <v>-1.106276119359261</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.542701308993116</v>
+        <v>-3.639453426993471</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>4.454409740587051</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.952699505897283</v>
+        <v>-8.003026318020877</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.107598441946276</v>
+        <v>-1.066069657332321</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.335607262642693</v>
+        <v>-3.440123116228192</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>4.495966090191772</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.425043607821076</v>
+        <v>-8.473877897420714</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.293352034664685</v>
+        <v>-1.256418648348176</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.967949214241342</v>
+        <v>-3.074756220824143</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>4.506049303322444</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.366340905232654</v>
+        <v>-9.415122825620927</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.215832509538825</v>
+        <v>-1.177419693001201</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.944906761239904</v>
+        <v>-3.062541102272812</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>4.48467034581105</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.19302818356776</v>
+        <v>-10.230315062061</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.309075890377598</v>
+        <v>-1.267324536615334</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.77050419508527</v>
+        <v>-2.886763844319798</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>4.427779014114076</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02796361269316</v>
+        <v>-11.06155846178503</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.420203356898169</v>
+        <v>-1.367506837960222</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.394938395767517</v>
+        <v>-2.516029104750641</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>4.33820744068029</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.2432304393707</v>
+        <v>-12.26900918366606</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.49431888328518</v>
+        <v>-1.449687222897736</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.291404464895147</v>
+        <v>-2.406760745233595</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>4.213678810142516</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.13185740245001</v>
+        <v>-13.14855008857321</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.592812277563486</v>
+        <v>-1.541464265818236</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.947338746214586</v>
+        <v>-2.069633947059149</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>4.0500086856753</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32355808401245</v>
+        <v>-14.32713228268824</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.804606460634088</v>
+        <v>-1.738804546551573</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.703036375187977</v>
+        <v>-1.814582795399483</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>3.848005529871577</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42641439849092</v>
+        <v>-15.41933146265355</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.845258060957648</v>
+        <v>-1.781969869020744</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.286858252455189</v>
+        <v>-1.404977008693242</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>3.603041909275003</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.84352525807936</v>
+        <v>-16.82358568085141</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.869793036483042</v>
+        <v>-1.796214294512542</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9807209351071084</v>
+        <v>-1.091023586548651</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>3.310774074315737</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.53638620012022</v>
+        <v>-18.4939278620045</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.095556706685767</v>
+        <v>-2.02580091714505</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7740065655390955</v>
+        <v>-0.8859850317443786</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.967816954553967</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.15044457135673</v>
+        <v>-20.10510592661584</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.319356531462232</v>
+        <v>-2.249365080470364</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4858187953870213</v>
+        <v>-0.5877554653127005</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.569116580217665</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.97735760219403</v>
+        <v>-21.92655946716813</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.529736745825928</v>
+        <v>-2.451392405621039</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6502843036847842</v>
+        <v>-0.7322552117768311</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.110276723094378</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.70017373313677</v>
+        <v>-23.64099652429216</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.632026907928334</v>
+        <v>-2.550435676618697</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4711816008099716</v>
+        <v>-0.5551032620254357</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>1.587603368280774</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.78051447008135</v>
+        <v>-25.71274871057258</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.805814135849406</v>
+        <v>-2.736411838485416</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4665338333011588</v>
+        <v>-0.5460826653674864</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>1.0014625391562</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.04920107570701</v>
+        <v>-27.97172082748968</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.678124906234051</v>
+        <v>-2.606483825084126</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6011357988169445</v>
+        <v>-0.6858429982029122</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.3537420734114289</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.32862336966289</v>
+        <v>-30.25363065898548</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.165852463996873</v>
+        <v>-3.099985088400149</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9862720715120002</v>
+        <v>-1.049769740294372</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3576881606868823</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.51298245268499</v>
+        <v>-32.43166615973503</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.225173688172733</v>
+        <v>-3.162710311314858</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.212782002976703</v>
+        <v>-1.272404350117923</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.1152864689657</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.73736470549425</v>
+        <v>-34.65890253456379</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.600032503137034</v>
+        <v>-3.52604789977844</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.447225869963492</v>
+        <v>-1.496636220888166</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.928330485880643</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.2404951781067</v>
+        <v>-37.16665459007936</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.844884750882995</v>
+        <v>-3.777969991058933</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.878080464181855</v>
+        <v>-1.911505113336782</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.759163545340533</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.77350228580396</v>
+        <v>-39.69293225411599</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.739308420767316</v>
+        <v>-3.675679828956528</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.356617225349785</v>
+        <v>-2.383417169266798</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.63833678404172</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.33986858114195</v>
+        <v>-42.26982476093872</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.922220983769071</v>
+        <v>-3.862886667290368</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.71930019867128</v>
+        <v>-2.730873794383366</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.486906494494815</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.58366671906549</v>
+        <v>-44.53785675142229</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.160644910819745</v>
+        <v>-4.102161594025755</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.3279220808746</v>
+        <v>-3.328877818982046</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.407540619742341</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.88694318879899</v>
+        <v>-46.85502415447086</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.303783057788336</v>
+        <v>-4.244291633675532</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.604195855440703</v>
+        <v>-3.603357948058833</v>
       </c>
     </row>
   </sheetData>
